--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Dialog/Drama/namamani.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Dialog/Drama/namamani.xlsx
@@ -125,7 +125,7 @@
 ...Interesting. I can’t say I dislike this kind of rough craftsmanship. You got a memory chip on you?</t>
   </si>
   <si>
-    <t xml:space="preserve">…역시나. 회로 설계가 어설퍼. 신호에 딜레이가 걸리고, 전류도 불안정하고, 클록 톱니바퀴의 싱크 정밀도도 그렇고, 어느 것 하나 한계에 다다르지 않은 게 없군. 이래서는 연산기관의 잠재력을 절반도 못 살린다.
+    <t xml:space="preserve">…역시나. 회로 설계가 어설퍼. 신호에 딜레이가 있고, 전류도 불안정하고, 클록 톱니바퀴의 싱크 정밀도도 그렇고, 어느 것 하나 한계에 다다르지 않은 게 없군. 이래서는 연산기관의 잠재력을 절반도 못 살린다.
 도파관 배치도 난잡하고, 소음 방지 메커니즘도 없는 거나 다름없어. 기판을 다시 짜면 간섭이 꽤 경감될 텐데… 흠, 제어부의 쓰기 작업도 최적화를 할 여지가 있군. 기억 톱니바퀴 관리도 동적으로 하게 하면 처리 효율이 단숨에 상승할 거다.
 …딱히 이런 조잡한 기계를 싫어하진 않아. 혹시 메모리 칩 가진 것 있나?</t>
   </si>
@@ -541,9 +541,9 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="L43" activeCellId="0" sqref="L43"/>
+      <selection pane="bottomLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
